--- a/keybindings.xlsx
+++ b/keybindings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3CA46-C862-4256-B166-1BF4AF3D17FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F26B7BE-5CC6-47CA-BD81-42CE1629F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F59DFF16-6FCE-45C0-8EF6-2ACB1A2A612D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>alt e</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>ctrl e e</t>
+  </si>
+  <si>
+    <t>run selection</t>
+  </si>
+  <si>
+    <t>shift enter</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
   <dimension ref="A4:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +638,8 @@
     <col min="7" max="7" width="3.109375" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -763,10 +770,10 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -794,8 +801,12 @@
         <v>3</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>

--- a/keybindings.xlsx
+++ b/keybindings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F26B7BE-5CC6-47CA-BD81-42CE1629F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2E059-956D-490D-8353-E38EA0D77500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F59DFF16-6FCE-45C0-8EF6-2ACB1A2A612D}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{F59DFF16-6FCE-45C0-8EF6-2ACB1A2A612D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>close file</t>
   </si>
   <si>
-    <t>ctrl e</t>
-  </si>
-  <si>
     <t>close all files</t>
   </si>
   <si>
@@ -197,13 +194,16 @@
     <t>ctrl n</t>
   </si>
   <si>
-    <t>ctrl e e</t>
-  </si>
-  <si>
     <t>run selection</t>
   </si>
   <si>
     <t>shift enter</t>
+  </si>
+  <si>
+    <t>ctrl r</t>
+  </si>
+  <si>
+    <t>ctrl t</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A4:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>26</v>
@@ -702,7 +702,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="5" t="s">
@@ -717,7 +717,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -731,10 +731,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="5" t="s">
@@ -749,7 +749,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>32</v>
@@ -770,10 +770,10 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -781,7 +781,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>33</v>
@@ -844,10 +844,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
@@ -868,17 +868,17 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -908,8 +908,8 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -928,8 +928,8 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
